--- a/project/CV/CV_11.xlsx
+++ b/project/CV/CV_11.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,1034 +498,2614 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aleutians east borough</t>
+          <t>alachua</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7447</v>
+        <v>2368768</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>18181</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>2013</v>
+        <v>12001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.067</v>
+        <v>0.001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="I2" t="n">
-        <v>0.034</v>
+        <v>0.053</v>
       </c>
       <c r="J2" t="n">
-        <v>0.316</v>
+        <v>0.17</v>
       </c>
       <c r="K2" t="n">
-        <v>0.551</v>
+        <v>0.7509999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aleutians west census area</t>
+          <t>baker</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30219</v>
+        <v>380302</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5142</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>2016</v>
+        <v>12003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.078</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.031</v>
+        <v>0.076</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="J3" t="n">
-        <v>0.337</v>
+        <v>0.215</v>
       </c>
       <c r="K3" t="n">
-        <v>0.524</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>anchorage</t>
+          <t>bay</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2509767</v>
+        <v>1773431</v>
       </c>
       <c r="D4" t="n">
-        <v>13793</v>
+        <v>30442</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>2020</v>
+        <v>12005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.042</v>
+        <v>0.065</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.109</v>
       </c>
       <c r="I4" t="n">
-        <v>0.049</v>
+        <v>0.076</v>
       </c>
       <c r="J4" t="n">
-        <v>0.196</v>
+        <v>0.202</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6629999999999999</v>
+        <v>0.5479999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bethel census area</t>
+          <t>bradford</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>234735</v>
+        <v>294416</v>
       </c>
       <c r="D5" t="n">
-        <v>955</v>
+        <v>3504</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>2050</v>
+        <v>12007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.101</v>
+        <v>0.106</v>
       </c>
       <c r="H5" t="n">
-        <v>0.022</v>
+        <v>0.168</v>
       </c>
       <c r="I5" t="n">
-        <v>0.014</v>
+        <v>0.172</v>
       </c>
       <c r="J5" t="n">
-        <v>0.45</v>
+        <v>0.173</v>
       </c>
       <c r="K5" t="n">
-        <v>0.413</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bristol bay plus lake and peninsula</t>
+          <t>brevard</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25924</v>
+        <v>3060221</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>79281</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>2997</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>12009</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.607</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>denali borough</t>
+          <t>broward</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6560</v>
+        <v>22182028</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>341375</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>2068</v>
+        <v>12011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.062</v>
+        <v>0.026</v>
       </c>
       <c r="H7" t="n">
-        <v>0.081</v>
+        <v>0.023</v>
       </c>
       <c r="I7" t="n">
-        <v>0.067</v>
+        <v>0.043</v>
       </c>
       <c r="J7" t="n">
-        <v>0.225</v>
+        <v>0.117</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.7909999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dillingham census area</t>
+          <t>calhoun</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16209</v>
+        <v>181089</v>
       </c>
       <c r="D8" t="n">
-        <v>81</v>
+        <v>4129</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>2070</v>
+        <v>12013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.034</v>
       </c>
       <c r="H8" t="n">
-        <v>0.025</v>
+        <v>0.055</v>
       </c>
       <c r="I8" t="n">
-        <v>0.027</v>
+        <v>0.138</v>
       </c>
       <c r="J8" t="n">
-        <v>0.391</v>
+        <v>0.267</v>
       </c>
       <c r="K8" t="n">
-        <v>0.484</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fairbanks north star borough</t>
+          <t>charlotte</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>576227</v>
+        <v>1053402</v>
       </c>
       <c r="D9" t="n">
-        <v>3194</v>
+        <v>41465</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>2090</v>
+        <v>12015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.094</v>
+        <v>0.051</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.049</v>
       </c>
       <c r="I9" t="n">
-        <v>0.175</v>
+        <v>0.101</v>
       </c>
       <c r="J9" t="n">
-        <v>0.234</v>
+        <v>0.158</v>
       </c>
       <c r="K9" t="n">
-        <v>0.413</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>haines borough</t>
+          <t>citrus</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3151</v>
+        <v>901287</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>33975</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>2100</v>
+        <v>12017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.036</v>
       </c>
       <c r="I10" t="n">
-        <v>0.123</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>0.419</v>
+        <v>0.178</v>
       </c>
       <c r="K10" t="n">
-        <v>0.352</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>juneau city and borough</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>133522</v>
+        <v>1626701</v>
       </c>
       <c r="D11" t="n">
-        <v>429</v>
+        <v>30550</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>2110</v>
+        <v>12019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="H11" t="n">
         <v>0.067</v>
       </c>
       <c r="I11" t="n">
-        <v>0.133</v>
+        <v>0.15</v>
       </c>
       <c r="J11" t="n">
-        <v>0.396</v>
+        <v>0.209</v>
       </c>
       <c r="K11" t="n">
-        <v>0.353</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>kenai peninsula borough</t>
+          <t>collier</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>388895</v>
+        <v>3707532</v>
       </c>
       <c r="D12" t="n">
-        <v>1419</v>
+        <v>58639</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>2122</v>
+        <v>12021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="H12" t="n">
-        <v>0.047</v>
+        <v>0.023</v>
       </c>
       <c r="I12" t="n">
-        <v>0.051</v>
+        <v>0.067</v>
       </c>
       <c r="J12" t="n">
-        <v>0.197</v>
+        <v>0.212</v>
       </c>
       <c r="K12" t="n">
-        <v>0.662</v>
+        <v>0.6579999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ketchikan gateway borough</t>
+          <t>columbia</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>31822</v>
+        <v>970330</v>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>16173</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>2130</v>
+        <v>12023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="H13" t="n">
-        <v>0.149</v>
+        <v>0.026</v>
       </c>
       <c r="I13" t="n">
-        <v>0.174</v>
+        <v>0.288</v>
       </c>
       <c r="J13" t="n">
-        <v>0.256</v>
+        <v>0.254</v>
       </c>
       <c r="K13" t="n">
-        <v>0.396</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>kodiak island borough</t>
+          <t>desoto</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>76531</v>
+        <v>465676</v>
       </c>
       <c r="D14" t="n">
-        <v>188</v>
+        <v>8238</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>2150</v>
+        <v>12027</v>
       </c>
       <c r="G14" t="n">
-        <v>0.042</v>
+        <v>0.023</v>
       </c>
       <c r="H14" t="n">
-        <v>0.043</v>
+        <v>0.064</v>
       </c>
       <c r="I14" t="n">
-        <v>0.049</v>
+        <v>0.056</v>
       </c>
       <c r="J14" t="n">
-        <v>0.233</v>
+        <v>0.142</v>
       </c>
       <c r="K14" t="n">
-        <v>0.633</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>kusilvak census area</t>
+          <t>dixie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>76554</v>
+        <v>191853</v>
       </c>
       <c r="D15" t="n">
-        <v>204</v>
+        <v>2046</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>2158</v>
+        <v>12029</v>
       </c>
       <c r="G15" t="n">
-        <v>0.103</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.022</v>
+        <v>0.095</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.119</v>
       </c>
       <c r="J15" t="n">
-        <v>0.521</v>
+        <v>0.318</v>
       </c>
       <c r="K15" t="n">
-        <v>0.347</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>matanuska-susitna borough</t>
+          <t>duval</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>614149</v>
+        <v>9302302</v>
       </c>
       <c r="D16" t="n">
-        <v>1794</v>
+        <v>112607</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>2170</v>
+        <v>12031</v>
       </c>
       <c r="G16" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.042</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.051</v>
-      </c>
       <c r="I16" t="n">
-        <v>0.048</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>0.198</v>
+        <v>0.194</v>
       </c>
       <c r="K16" t="n">
-        <v>0.66</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nome census area</t>
+          <t>escambia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32884</v>
+        <v>3557514</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>62491</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>2180</v>
+        <v>12033</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.019</v>
       </c>
       <c r="H17" t="n">
-        <v>0.061</v>
+        <v>0.052</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="J17" t="n">
-        <v>0.544</v>
+        <v>0.31</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>north slope borough</t>
+          <t>flagler</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>81815</v>
+        <v>554235</v>
       </c>
       <c r="D18" t="n">
-        <v>176</v>
+        <v>7844</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>2185</v>
+        <v>12035</v>
       </c>
       <c r="G18" t="n">
-        <v>0.036</v>
+        <v>0.079</v>
       </c>
       <c r="H18" t="n">
-        <v>0.059</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>0.235</v>
+        <v>0.113</v>
       </c>
       <c r="J18" t="n">
-        <v>0.215</v>
+        <v>0.157</v>
       </c>
       <c r="K18" t="n">
-        <v>0.455</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>northwest arctic borough</t>
+          <t>franklin</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>54389</v>
+        <v>153742</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>859</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>2188</v>
+        <v>12037</v>
       </c>
       <c r="G19" t="n">
-        <v>0.035</v>
+        <v>0.022</v>
       </c>
       <c r="H19" t="n">
-        <v>0.188</v>
+        <v>0.101</v>
       </c>
       <c r="I19" t="n">
-        <v>0.051</v>
+        <v>0.237</v>
       </c>
       <c r="J19" t="n">
-        <v>0.474</v>
+        <v>0.228</v>
       </c>
       <c r="K19" t="n">
-        <v>0.252</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>petersburg borough</t>
+          <t>gadsden</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4591</v>
+        <v>686990</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>10480</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>2195</v>
+        <v>12039</v>
       </c>
       <c r="G20" t="n">
-        <v>0.042</v>
+        <v>0.06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.095</v>
+        <v>0.033</v>
       </c>
       <c r="I20" t="n">
-        <v>0.148</v>
+        <v>0.104</v>
       </c>
       <c r="J20" t="n">
-        <v>0.349</v>
+        <v>0.227</v>
       </c>
       <c r="K20" t="n">
-        <v>0.365</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>prince of wales-hyder census area</t>
+          <t>gilchrist</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8795</v>
+        <v>150355</v>
       </c>
       <c r="D21" t="n">
-        <v>107</v>
+        <v>3450</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>2198</v>
+        <v>12041</v>
       </c>
       <c r="G21" t="n">
-        <v>0.033</v>
+        <v>0.016</v>
       </c>
       <c r="H21" t="n">
-        <v>0.125</v>
+        <v>0.151</v>
       </c>
       <c r="I21" t="n">
-        <v>0.161</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3</v>
+        <v>0.324</v>
       </c>
       <c r="K21" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sitka city and borough</t>
+          <t>glades</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29900</v>
+        <v>135592</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1602</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>2220</v>
+        <v>12043</v>
       </c>
       <c r="G22" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="H22" t="n">
-        <v>0.077</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>0.137</v>
+        <v>0.098</v>
       </c>
       <c r="J22" t="n">
-        <v>0.381</v>
+        <v>0.096</v>
       </c>
       <c r="K22" t="n">
-        <v>0.357</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>skagway municipality</t>
+          <t>gulf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1388</v>
+        <v>215351</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3633</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>2230</v>
+        <v>12045</v>
       </c>
       <c r="G23" t="n">
-        <v>0.058</v>
+        <v>0.046</v>
       </c>
       <c r="H23" t="n">
-        <v>0.038</v>
+        <v>0.125</v>
       </c>
       <c r="I23" t="n">
-        <v>0.116</v>
+        <v>0.12</v>
       </c>
       <c r="J23" t="n">
-        <v>0.435</v>
+        <v>0.249</v>
       </c>
       <c r="K23" t="n">
-        <v>0.354</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>southeast fairbanks census area</t>
+          <t>hamilton</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>39193</v>
+        <v>221568</v>
       </c>
       <c r="D24" t="n">
-        <v>248</v>
+        <v>2119</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>2240</v>
+        <v>12047</v>
       </c>
       <c r="G24" t="n">
-        <v>0.064</v>
+        <v>0.101</v>
       </c>
       <c r="H24" t="n">
         <v>0.07099999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.14</v>
+        <v>0.235</v>
       </c>
       <c r="J24" t="n">
-        <v>0.272</v>
+        <v>0.227</v>
       </c>
       <c r="K24" t="n">
-        <v>0.453</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>valdez-cordova census area</t>
+          <t>hardee</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>46832</v>
+        <v>359113</v>
       </c>
       <c r="D25" t="n">
-        <v>216</v>
+        <v>3186</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>2261</v>
+        <v>12049</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04</v>
+        <v>0.114</v>
       </c>
       <c r="H25" t="n">
-        <v>0.049</v>
+        <v>0.041</v>
       </c>
       <c r="I25" t="n">
-        <v>0.052</v>
+        <v>0.179</v>
       </c>
       <c r="J25" t="n">
-        <v>0.197</v>
+        <v>0.1860000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6629999999999999</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>wrangell city and borough</t>
+          <t>hendry</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4229</v>
+        <v>578733</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>10711</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>2275</v>
+        <v>12051</v>
       </c>
       <c r="G26" t="n">
-        <v>0.035</v>
+        <v>0.046</v>
       </c>
       <c r="H26" t="n">
-        <v>0.119</v>
+        <v>0.042</v>
       </c>
       <c r="I26" t="n">
-        <v>0.16</v>
+        <v>0.112</v>
       </c>
       <c r="J26" t="n">
-        <v>0.312</v>
+        <v>0.15</v>
       </c>
       <c r="K26" t="n">
-        <v>0.374</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>yakutat plus hoonah-angoon</t>
+          <t>hernando</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7591</v>
+        <v>1023119</v>
       </c>
       <c r="D27" t="n">
-        <v>66</v>
+        <v>37823</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>2998</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>12053</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.589</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>yukon-koyukuk census area</t>
+          <t>highlands</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>alaska</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>29318</v>
+        <v>710469</v>
       </c>
       <c r="D28" t="n">
-        <v>486</v>
+        <v>28099</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>2290</v>
+        <v>12055</v>
       </c>
       <c r="G28" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.635</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>hillsborough</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>12265304</v>
+      </c>
+      <c r="D29" t="n">
+        <v>176920</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12057</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.722</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>holmes</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>234798</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3099</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12059</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>indian river</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1041814</v>
+      </c>
+      <c r="D31" t="n">
+        <v>27933</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12061</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.08199999999999999</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.607</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>jackson</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>742646</v>
+      </c>
+      <c r="D32" t="n">
+        <v>18032</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12063</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>jefferson</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>156089</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2597</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12065</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>lafayette</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>246645</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3043</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F34" t="n">
+        <v>12067</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.389</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>lake</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2310748</v>
+      </c>
+      <c r="D35" t="n">
+        <v>48530</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F35" t="n">
+        <v>12069</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>lee</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>6323154</v>
+      </c>
+      <c r="D36" t="n">
+        <v>122433</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F36" t="n">
+        <v>12071</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.648</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>leon</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2903614</v>
+      </c>
+      <c r="D37" t="n">
+        <v>24072</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12073</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>levy</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>292124</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2683</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12075</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.5920000000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>liberty</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>141660</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2193</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F39" t="n">
+        <v>12077</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.482</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>madison</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>257780</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5131</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12079</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>manatee</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3487146</v>
+      </c>
+      <c r="D41" t="n">
+        <v>79631</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12081</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.03700000000000001</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>marion</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2714609</v>
+      </c>
+      <c r="D42" t="n">
+        <v>70969</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12083</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5429999999999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>martin</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1351573</v>
+      </c>
+      <c r="D43" t="n">
+        <v>35154</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12085</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.7190000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>miami-dade</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>48148781</v>
+      </c>
+      <c r="D44" t="n">
+        <v>782115</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F44" t="n">
+        <v>12086</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.7559999999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>monroe</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>620274</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5619</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F45" t="n">
+        <v>12087</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.006999999999999999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.8190000000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>nassau</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>678552</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10170</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F46" t="n">
+        <v>12089</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>okaloosa</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1743698</v>
+      </c>
+      <c r="D47" t="n">
+        <v>31091</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12091</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.469</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>okeechobee</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>409989</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7420</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F48" t="n">
+        <v>12093</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.715</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>12097719</v>
+      </c>
+      <c r="D49" t="n">
+        <v>122701</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F49" t="n">
+        <v>12095</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.7240000000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>osceola</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3821727</v>
+      </c>
+      <c r="D50" t="n">
+        <v>45505</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F50" t="n">
+        <v>12097</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>palm beach</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>13634234</v>
+      </c>
+      <c r="D51" t="n">
+        <v>352987</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F51" t="n">
+        <v>12099</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.784</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>pasco</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3113446</v>
+      </c>
+      <c r="D52" t="n">
+        <v>58333</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F52" t="n">
+        <v>12101</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.7090000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>pinellas</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>6934467</v>
+      </c>
+      <c r="D53" t="n">
+        <v>186062</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F53" t="n">
+        <v>12103</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>polk</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5823169</v>
+      </c>
+      <c r="D54" t="n">
+        <v>134587</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12105</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>putnam</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>615539</v>
+      </c>
+      <c r="D55" t="n">
+        <v>11746</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F55" t="n">
+        <v>12107</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.1860000000000001</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>santa rosa</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1627199</v>
+      </c>
+      <c r="D56" t="n">
+        <v>21489</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F56" t="n">
+        <v>12113</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.453</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sarasota</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2714544</v>
+      </c>
+      <c r="D57" t="n">
+        <v>80135</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F57" t="n">
+        <v>12115</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.7040000000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>seminole</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2789227</v>
+      </c>
+      <c r="D58" t="n">
+        <v>51540</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F58" t="n">
+        <v>12117</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03700000000000001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.7170000000000001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>st. johns</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1837352</v>
+      </c>
+      <c r="D59" t="n">
+        <v>18871</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12109</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>st. lucie</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2295650</v>
+      </c>
+      <c r="D60" t="n">
+        <v>70311</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F60" t="n">
+        <v>12111</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.648</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>sumter</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>744737</v>
+      </c>
+      <c r="D61" t="n">
+        <v>20614</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F61" t="n">
+        <v>12119</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03700000000000001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>suwannee</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>673247</v>
+      </c>
+      <c r="D62" t="n">
+        <v>17628</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12121</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.369</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>taylor</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>323022</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3662</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12123</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.476</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>union</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>223194</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7982</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12125</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.044</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.358</v>
+      <c r="H64" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.473</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>volusia</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>3386446</v>
+      </c>
+      <c r="D65" t="n">
+        <v>69973</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F65" t="n">
+        <v>12127</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.08900000000000001</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.618</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>wakulla</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>322276</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3324</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F66" t="n">
+        <v>12129</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>walton</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>683937</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7764</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F67" t="n">
+        <v>12131</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.512</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>washington</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>florida</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>301215</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5430</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12133</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.5570000000000001</v>
       </c>
     </row>
   </sheetData>
